--- a/help/grip_and_ori_b.xlsx
+++ b/help/grip_and_ori_b.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="svod" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Колличество положительных, из числа лаборатоно обследованных случаев:</t>
   </si>
@@ -192,13 +192,16 @@
   </si>
   <si>
     <t>О результатах лабораторного исследования на ОРИ</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,16 +269,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -406,6 +422,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -413,7 +466,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -447,10 +500,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -828,10 +890,10 @@
     <tabColor theme="7" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:AG9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +901,9 @@
     <col min="1" max="1" width="33.42578125" style="8" customWidth="1"/>
     <col min="2" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="7" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="9" width="8.85546875" customWidth="1"/>
     <col min="18" max="18" width="9.85546875" customWidth="1"/>
     <col min="19" max="19" width="8.28515625" customWidth="1"/>
@@ -852,230 +916,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
     </row>
     <row r="2" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
     </row>
     <row r="3" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="22"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="25"/>
     </row>
     <row r="4" spans="1:33" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="32" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="16" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="16" t="s">
+      <c r="S4" s="20"/>
+      <c r="T4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="16" t="s">
+      <c r="U4" s="20"/>
+      <c r="V4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="17"/>
-      <c r="X4" s="16" t="s">
+      <c r="W4" s="20"/>
+      <c r="X4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="16" t="s">
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="16" t="s">
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="16" t="s">
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="16" t="s">
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AG4" s="17"/>
+      <c r="AG4" s="20"/>
     </row>
     <row r="5" spans="1:33" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="20" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="20" t="s">
+      <c r="K5" s="26"/>
+      <c r="L5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="20" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="20" t="s">
+      <c r="O5" s="26"/>
+      <c r="P5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="19"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="22"/>
     </row>
     <row r="6" spans="1:33" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1168,7 +1232,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="9">
         <v>1</v>
       </c>
@@ -1267,7 +1331,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
@@ -1365,43 +1429,173 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="R10" s="12"/>
+    <row r="9" spans="1:33" s="7" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="13">
+        <f>SUM(B10:B548)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" ref="C9:AG9" si="0">SUM(C10:C548)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="R11" s="12"/>
@@ -1436,11 +1630,14 @@
     <row r="21" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R21" s="12"/>
     </row>
-    <row r="23" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R23" s="12"/>
+    <row r="22" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R22" s="12"/>
     </row>
     <row r="24" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="23">
